--- a/Export/Paternoster.xlsx
+++ b/Export/Paternoster.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C123</t>
+          <t>C931</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P1.1</t>
+          <t>P01,1</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45237.42707481408</v>
+        <v>45247.38167824074</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -489,18 +489,2908 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C234</t>
+          <t>C375</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P1.1</t>
+          <t>P01,2</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45237.42820943989</v>
+        <v>45247.3953587963</v>
       </c>
       <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P01,3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45251.30315972222</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>P01,4</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45251.31133101852</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P01,5</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45248.29450231481</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>P01,6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45247.42076388889</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C572</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>P01,7</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45247.4425</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>P02,1</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45248.34569444445</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C772</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>P02,2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45247.66486111111</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C571</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>P02,3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45247.68354166667</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>P02,4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45247.68368055556</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C096</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>P02,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45183.24971064815</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>P02,6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45246.98964120371</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>P02,7</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45248.34585648148</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>P03,1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45251.33122685185</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>P03,2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45247.48582175926</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>P03,3</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45247.51804398148</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C182</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P03,4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45247.51815972223</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C251</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>P03,5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45247.51827546296</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>P03,6</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45251.33136574074</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C975</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>P03,7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45251.34162037037</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>P04,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45247.7162962963</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C240</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P04,3</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45247.00840277778</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C785</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>P04,4</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45248.3721412037</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C591</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>P04,5</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45248.37229166667</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C707</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>P04,6</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45248.37244212963</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C116</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>P04,7</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45248.37335648148</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C668</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>P05,1</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45251.34184027778</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45279.06591679961</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C145</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>P05,2</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45247.44283564815</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C601</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P05,3</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45247.63902777778</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>C533</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>P05,4</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45247.63914351852</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>C179</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>P05,5</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45247.53549768519</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>C896</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>P05,6</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45247.65289351852</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>C844</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>P05,7</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45247.53560185185</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>P06,2</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45248.41791666667</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>C718</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>P06,5</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45246.90400462963</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>C206</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>P06,6</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45247.71666666667</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>C664</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>P06,7</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45246.90430555555</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>C048</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>P07,1</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45183.24917824074</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>C232</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>P07,2</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45246.92807870371</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>C822</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>P07,3</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45246.94362268518</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>C085</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>P07,4</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45247.28572916667</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>C823</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>P07,5</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45247.2858449074</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>C200</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>P07,6</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45247.31079861111</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>C033</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>P07,7</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45243.87997685185</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C942</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>P08,1</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45247.01295138889</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>C505</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>P08,2</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45183.36177083333</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>C121</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>P08,3</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45247.09547453704</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>C756</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>P08,4</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45247.09563657407</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>C713</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>P08,5</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45247.09579861111</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>C826</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>P08,6</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45205.1449074074</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>C416</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>P08,7</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45205.14503472222</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>C955</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>P09,1</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45247.97324074074</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>C380</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>P09,2</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45247.31114583334</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>C563</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>P09,3</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45247.31126157408</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>C114</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>P09,4</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45183.24938657408</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>C810</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>P09,5</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45247.34358796296</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>C616</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>P09,6</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45246.94408564815</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>C964</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>P09,7</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45248.29482638889</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>C968</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>P10,1</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45247.09605324074</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>C059</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>P10,2</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45247.09622685185</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>C129</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>P10,3</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45247.09636574074</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>C584</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>P10,4</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45051.61109953704</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>C820</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>P10,5</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45051.61126157407</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>C107</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>P10,6</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45051.61150462963</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>C316</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>P10,7</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45051.61603009259</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>C426</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>P11,1</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45248.32212962963</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>C979</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>P11,2</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45248.3224537037</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>C598</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>P11,3</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45247.9734837963</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>C801</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>P11,4</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45247.97364583334</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>C029</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>P11,7</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45248.0062962963</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>C825</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>P12,1</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45247.71960648148</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>C115</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>P12,2</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45247.71976851852</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>C757</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>P12,3</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45247.7627662037</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>C602</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>P12,4</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45247.76289351852</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>C965</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>P12,5</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45247.84905092593</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>C632</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>P12,6</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45248.41825231481</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>C446</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>P12,7</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45248.45366898148</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>C753</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>P13,1</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45248.34518518519</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>C083</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>P13,3</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45246.95064814815</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>C610</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>P13,4</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45246.954375</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>C892</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>P13,6</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45248.34532407407</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>C917</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>P13,7</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45246.97894675926</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>C978</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>P14,1</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45247.89310185185</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>C297</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>P14,2</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45247.89317129629</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>C047</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>P14,3</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45247.89335648148</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>C737</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>P14,4</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45248.0066087963</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>C741</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>P14,5</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45248.00674768518</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>C914</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>P14,6</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45248.0659375</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>C300</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>P14,7</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45248.45395833333</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>C623</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>P15,1</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45247.11638888889</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>C551</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>P15,2</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45248.45442129629</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>C199</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>P15,3</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45248.06611111111</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>C685</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>P15,4</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45248.45461805556</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>C208</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>P15,5</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45248.65526620371</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>C736</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>P15,6</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45248.65556712963</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>C382</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>P15,7</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45016.59325231481</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>C558</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>P16,1</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45247.94342592593</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>C023</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>P16,2</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45248.06638888889</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>C812</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>P16,3</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45248.09753472222</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>C754</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>P16,4</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45248.09768518519</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>C814</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>P16,5</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45248.09789351852</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>C930</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>P16,6</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45127.49614583333</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>C945</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>P16,7</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45248.09805555556</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>C908</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>P17,1</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45016.59353009259</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>C710</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>P17,2</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45251.28083333333</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>C057</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>P17,3</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45016.59366898148</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>C807</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>P17,4</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45016.59373842592</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>C358</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>P17,5</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45016.59387731482</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>C750</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>P17,6</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45016.5940162037</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>C796</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>P17,7</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45016.59410879629</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>C745</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>P18,1</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45237.47665509259</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>C633</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>P18,2</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45248.13063657407</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>C704</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>P18,3</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45248.13078703704</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>C070</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>P18,4</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45248.13094907408</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>C611</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>P18,5</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45248.19559027778</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>C661</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>P18,6</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45248.19574074074</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>C040</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>P18,7</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45248.19590277778</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>C727</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>P19,1</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45251.29364583334</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C699</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>P19,2</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45251.29381944444</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>C971</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>P19,5</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45230.64034722222</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>C120</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>P19,7</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45247.34386574074</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>C554</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>P20,1</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45248.24015046296</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>C108</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>P20,2</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45248.2403125</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>C273</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>P20,3</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45248.27253472222</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>C743</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>P20,4</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45248.27270833333</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>C594</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>P20,5</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45248.27287037037</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>C209</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>P20,6</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45248.27302083333</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>C547</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>P20,7</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45248.27318287037</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>C954</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>P21,1</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45247.34430555555</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>C660</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>P21,3</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45247.44324074074</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>P21,4</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45247.45697916667</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>C525</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>P21,5</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45247.45711805556</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>C011</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>P21,6</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45247.46672453704</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>C144</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>P23,1</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45247.27199074074</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>C553</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>P23,2</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45247.27230324074</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>C677</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>P23,3</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45247.27252314815</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>C513</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>P23,4</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45247.48449074074</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>C670</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>P23,5</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45247.48466435185</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>C091</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>P23,6</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45247.60333333333</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>C819</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>P23,7</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45247.60347222222</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>C241</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>P25,1</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45247.60373842593</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>C049</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>P25,2</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45247.6225462963</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>C252</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>P25,3</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45247.62267361111</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>C112</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>P25,6</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45247.39565972222</v>
+      </c>
+      <c r="E146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>C963</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>P25,7</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45247.40928240741</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>C764</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>P27,1</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45247.40958333333</v>
+      </c>
+      <c r="E148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>C541</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>P27,2</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45247.8937037037</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>C013</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>P27,3</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45247.89390046296</v>
+      </c>
+      <c r="E150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>C022</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>P27,4</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45247.94152777778</v>
+      </c>
+      <c r="E151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>C625</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>P27,5</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45247.94167824074</v>
+      </c>
+      <c r="E152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>C008</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>P27,6</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45247.94181712963</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>C559</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>P27,7</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45247.94292824074</v>
+      </c>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>C999</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>P28,2</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45090.61965277778</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
